--- a/trend.xlsx
+++ b/trend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ki_Seki\OneDrive\Knowledge\Researches\240407-240525 Internal Consistency Survey\Figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ki_Seki\OneDrive\Knowledge\Researches\240407-240620 Internal Consistency Survey\Figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426C24D-0CC8-49B3-813E-5BF36B7BD800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C72E1-5B82-4079-8E4C-0AE9F50D0AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAD1DA45-DDAB-4BF6-B35E-069D69D4D9A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAD1DA45-DDAB-4BF6-B35E-069D69D4D9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="multiTimeline" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Category: All categories</t>
   </si>
@@ -856,7 +856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Result!$B$1</c:f>
+              <c:f>Result!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +891,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Result!$A$2:$A$21</c:f>
+              <c:f>Result!$G$2:$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -959,7 +959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Result!$B$2:$B$21</c:f>
+              <c:f>Result!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -988,40 +988,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,7 +1038,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Result!$C$1</c:f>
+              <c:f>Result!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1073,7 +1073,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Result!$A$2:$A$21</c:f>
+              <c:f>Result!$G$2:$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1141,7 +1141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Result!$C$2:$C$21</c:f>
+              <c:f>Result!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1158,7 +1158,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1167,43 +1167,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>143</c:v>
+                  <c:v>35.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>215</c:v>
+                  <c:v>53.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>245</c:v>
+                  <c:v>61.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>269</c:v>
+                  <c:v>67.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>224</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>351</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>281</c:v>
+                  <c:v>70.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>317</c:v>
+                  <c:v>79.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,6 +1295,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Relative Search Interest</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1997,11 +2053,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14292</cdr:x>
+      <cdr:x>0.19213</cdr:x>
       <cdr:y>0.47207</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.14389</cdr:x>
+      <cdr:x>0.1931</cdr:x>
       <cdr:y>0.60297</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -2017,8 +2073,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="695739" y="1041242"/>
-          <a:ext cx="4733" cy="288709"/>
+          <a:off x="932511" y="1027664"/>
+          <a:ext cx="4708" cy="284961"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -2045,11 +2101,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08458</cdr:x>
+      <cdr:x>0.13027</cdr:x>
       <cdr:y>0.36264</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.21</cdr:x>
+      <cdr:x>0.25569</cdr:x>
       <cdr:y>0.45276</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2065,8 +2121,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="411768" y="799861"/>
-          <a:ext cx="610544" cy="198785"/>
+          <a:off x="632294" y="789443"/>
+          <a:ext cx="608739" cy="196185"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3286,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14A137-7064-4694-BDEE-8338C9D99491}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4235,7 +4291,7 @@
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4563,23 +4619,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145FB754-B4C1-4150-9C74-53216FBC6C11}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -4589,8 +4651,19 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <f>B2/4</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>C2/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -4600,8 +4673,19 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="0">B3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="1">C3/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -4611,8 +4695,19 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -4622,8 +4717,19 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -4633,8 +4739,19 @@
       <c r="C6" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -4644,8 +4761,19 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -4655,8 +4783,19 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -4666,8 +4805,19 @@
       <c r="C9" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4677,8 +4827,19 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -4688,8 +4849,19 @@
       <c r="C11" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -4699,8 +4871,19 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -4710,8 +4893,19 @@
       <c r="C13" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -4721,8 +4915,19 @@
       <c r="C14" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -4732,8 +4937,19 @@
       <c r="C15" s="3">
         <v>215</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>29.75</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -4743,8 +4959,19 @@
       <c r="C16" s="3">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -4754,8 +4981,19 @@
       <c r="C17" s="3">
         <v>269</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -4765,8 +5003,19 @@
       <c r="C18" s="3">
         <v>224</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>62.75</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -4776,8 +5025,19 @@
       <c r="C19" s="3">
         <v>351</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>89.75</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -4787,8 +5047,19 @@
       <c r="C20" s="3">
         <v>281</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>70.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -4797,6 +5068,17 @@
       </c>
       <c r="C21" s="3">
         <v>317</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>79.25</v>
       </c>
     </row>
   </sheetData>
@@ -4808,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE53C8-2EFE-4EBE-97BA-931406C6B770}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
